--- a/data/trans_orig/P70D_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Clase-trans_orig.xlsx
@@ -563,10 +563,10 @@
         <v>8.846370746661115</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.845986296177934</v>
+        <v>8.845986296177935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.846189591942576</v>
+        <v>8.846189591942574</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.726234731797888</v>
+        <v>8.705378893419782</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.71725468443328</v>
+        <v>8.702074053495025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.755858545718249</v>
+        <v>8.752195189303626</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.969424872117875</v>
+        <v>8.968610811009947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.965348363579009</v>
+        <v>8.951385009603099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.927892084303172</v>
+        <v>8.931405315404508</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>8.931595110912374</v>
+        <v>8.931595110912378</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.776797849705881</v>
+        <v>8.776797849705883</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>8.860416118896882</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.774535990112659</v>
+        <v>8.778984446125621</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.655743753998063</v>
+        <v>8.645850057264093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.75705430272367</v>
+        <v>8.769078164197945</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.071070747899125</v>
+        <v>9.064710037860863</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.891708024999986</v>
+        <v>8.887429806629541</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.944788587643506</v>
+        <v>8.953220990072298</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8.944313119596057</v>
+        <v>8.944313119596055</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.564002803433084</v>
+        <v>8.564002803433082</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>8.855543964221603</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.755018143209753</v>
+        <v>8.733786385986933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.305270490705407</v>
+        <v>8.24701812469949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.684906090478494</v>
+        <v>8.694227806845124</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.091725624384283</v>
+        <v>9.104260333371077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.838182031071305</v>
+        <v>8.799048206665764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.970191761853545</v>
+        <v>8.976143349795132</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>8.653846061392995</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.628362349068874</v>
+        <v>8.628362349068876</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8.642766969715693</v>
+        <v>8.642766969715694</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.530423234919406</v>
+        <v>8.517241164330734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.50455740427914</v>
+        <v>8.489330984708797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.557748967598268</v>
+        <v>8.550626287344299</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.772252237351047</v>
+        <v>8.761242381686703</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.73652756286439</v>
+        <v>8.742048784096809</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.717279580935269</v>
+        <v>8.722854532932926</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>8.722347836701896</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8.323861680068235</v>
+        <v>8.323861680068237</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>8.522835110069343</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.515224853575878</v>
+        <v>8.535224143346666</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.167370673291693</v>
+        <v>8.15585173634072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.400024582173666</v>
+        <v>8.406165170191258</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.878610759193013</v>
+        <v>8.882774237171349</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.475010146725959</v>
+        <v>8.472236331689626</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.625620110087539</v>
+        <v>8.637885034647754</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>8.791625897127503</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>8.637900397478704</v>
+        <v>8.637900397478706</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>8.724311750109925</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.724113211919045</v>
+        <v>8.724317788237924</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.575879494907484</v>
+        <v>8.571258047433227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.679463077454313</v>
+        <v>8.678756943319822</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.855779595374923</v>
+        <v>8.85305983843292</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.694037130939948</v>
+        <v>8.697192922390327</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.771236698089231</v>
+        <v>8.765899061706893</v>
       </c>
     </row>
     <row r="22">
